--- a/mbs-perturbation/bloated/welm/smote/bloated_welm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/bloated/welm/smote/bloated_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5723981900452488</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.5742574257425742</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7060653188180404</v>
+        <v>0.6338797814207651</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7093023255813953</v>
+        <v>0.7649009900990099</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4807256235827664</v>
+        <v>0.5870646766169154</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9025641025641026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6405023547880691</v>
+        <v>0.6795366795366795</v>
       </c>
       <c r="E3" t="n">
-        <v>0.559071729957806</v>
+        <v>0.6452000495478757</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7687074829931972</v>
+        <v>0.5771144278606966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7808219178082192</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7702702702702703</v>
+        <v>0.6942446043165469</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8243654613517627</v>
+        <v>0.7688102734462156</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7324263038548753</v>
+        <v>0.6608478802992519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9868995633187773</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7929824561403509</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78048529290599</v>
+        <v>0.8418616226978596</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6689342403628118</v>
+        <v>0.57356608478803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9955357142857143</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7533783783783784</v>
+        <v>0.7182866556836903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810175279789335</v>
+        <v>0.6721311475409836</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.64463836816778</v>
+        <v>0.6130519472463122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.952651439082542</v>
+        <v>0.8953643056613354</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7326397556790218</v>
+        <v>0.6936743926763848</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7366800179172579</v>
+        <v>0.7385808166663889</v>
       </c>
     </row>
   </sheetData>
